--- a/business/business-plan/Jibres-BusinessPlan-v1-spend-fund.xlsx
+++ b/business/business-plan/Jibres-BusinessPlan-v1-spend-fund.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61097183-8175-4503-BA4D-75E894B74F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC09A2-00AF-4436-B5E5-83A1245F7C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,11 +133,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -183,7 +179,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -377,6 +377,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-012F-4325-AC56-C51E2D249BB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -392,6 +397,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-012F-4325-AC56-C51E2D249BB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -407,6 +417,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-012F-4325-AC56-C51E2D249BB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -422,6 +437,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-012F-4325-AC56-C51E2D249BB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -437,6 +457,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-012F-4325-AC56-C51E2D249BB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -498,6 +523,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-012F-4325-AC56-C51E2D249BB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1337,11 +1367,11 @@
     <sortCondition descending="1" ref="C1:C10"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{B6024333-6992-44DC-82A9-D83211D1B065}" name="ردیف" totalsRowLabel="جمع" dataDxfId="5" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{B6024333-6992-44DC-82A9-D83211D1B065}" name="ردیف" totalsRowLabel="جمع" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{92BB980E-44F8-4352-8A03-012336DA6EBE}" name="محل هزینه" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{21E47AF3-6158-4DDA-A777-1895559A5A90}" name="مبالغ پیش‌بینی شده به میلیون تومان" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{92BB980E-44F8-4352-8A03-012336DA6EBE}" name="محل هزینه" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{21E47AF3-6158-4DDA-A777-1895559A5A90}" name="مبالغ پیش‌بینی شده به میلیون تومان" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1613,7 +1643,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
@@ -1637,7 +1667,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
-        <f>ROW(A1)</f>
+        <f t="shared" ref="A2:A8" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1649,7 +1679,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
-        <f>ROW(A2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1661,7 +1691,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
-        <f>ROW(A3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1673,7 +1703,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
-        <f>ROW(A4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1685,7 +1715,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
-        <f>ROW(A5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1697,7 +1727,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
-        <f>ROW(A6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1709,7 +1739,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
-        <f>ROW(A7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">

--- a/business/business-plan/Jibres-BusinessPlan-v1-spend-fund.xlsx
+++ b/business/business-plan/Jibres-BusinessPlan-v1-spend-fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC09A2-00AF-4436-B5E5-83A1245F7C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB2A5C-1707-494A-850B-1AB4D70270C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
